--- a/biology/Microbiologie/Nomenclature_bactérienne/Nomenclature_bactérienne.xlsx
+++ b/biology/Microbiologie/Nomenclature_bactérienne/Nomenclature_bactérienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature bactérienne est la discipline qui établit les règles d'un langage international permettant de désigner par un même nom, des bactéries identiques dans n’importe quelle région du monde.
-Comme dans les autres disciplines des sciences du vivant (botanique, zoologie…), la nomenclature des bactéries est binomiale avec la structure Genre espèces en italique. Toutefois, à la différence de la nomenclature pour les animaux ou les plantes, l'usage des italiques se maintient pour tous les rangs taxonomiques et pas uniquement pour le genre et l'espèce. Elle est réglementée par le Code International de la Nomenclature Bactérienne[1] (version anglaise accessible en ligne), et dont la revue officielle l'International Journal for Systematic Bacteriology s'appelle désormais International Journal of Systematic and Evolutionary Microbiology (IJSEM).
+Comme dans les autres disciplines des sciences du vivant (botanique, zoologie…), la nomenclature des bactéries est binomiale avec la structure Genre espèces en italique. Toutefois, à la différence de la nomenclature pour les animaux ou les plantes, l'usage des italiques se maintient pour tous les rangs taxonomiques et pas uniquement pour le genre et l'espèce. Elle est réglementée par le Code International de la Nomenclature Bactérienne (version anglaise accessible en ligne), et dont la revue officielle l'International Journal for Systematic Bacteriology s'appelle désormais International Journal of Systematic and Evolutionary Microbiology (IJSEM).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nécessité des noms scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'usage du nom binomial correct permet de désigner un taxon sans être obligé de décrire tous ses caractères, et à tous les spécialistes d'une même discipline de se comprendre sans ambiguïté. Par exemple, le simple fait de rapporter une souche bactérienne à la famille des Enterobacteriaceae indiquera à tout bactériologiste que cette souche réunit des bactéries à Gram négatif, en majorité non sporulées, aéro-anaérobies, etc. En bactériologie médicale, il est indispensable que l'ensemble des spécialistes concernés (épidémiologistes, chercheurs, cliniciens, fabricants de vaccins, etc.) utilisent une nomenclature commune pour pouvoir collaborer efficacement.
 De plus, chaque langue nationale utilise de nombreux synonymes vernaculaires (non officiels) pour désigner une espèce bactérienne. Si certains noms conservent une valeur historique (« bacille de Koch » pour Mycobacterium tuberculosis, par exemple), d'autres sont source de confusions. Ainsi, le « vibrion septique » évoque le genre Vibrio, alors qu’il appartient aux Clostridium. Enfin, de tels noms n'étant compris que par certains francophones seulement, il est nécessaire de recourir aux noms scientifiques internationaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Règles de priorité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les règles de priorité sont les mêmes que pour les autres disciplines : lorsque deux espèces bactériennes sont regroupées dans un même genre, ou deux genres dans une même famille, selon de nouveaux critères, la règle d’antériorité de publication des noms de taxons prévaut pour désigner ce genre ou cette famille.
-Depuis le 1er janvier 1980, la priorité est établie par la Approved Lists of Bacterial Names[2], régulièrement mise à jour dans International Journal of Systematic and Evolutionnary Microbiology (IJSEM) (anciennement appelé International Journal for Systematic Bacteriology jusqu'au 31 décembre 1999)[3]. Elle est accessible en ligne sur le site de Jean Euzéby sur la nomenclature bactérienne, régulièrement mis à jour.
+Depuis le 1er janvier 1980, la priorité est établie par la Approved Lists of Bacterial Names, régulièrement mise à jour dans International Journal of Systematic and Evolutionnary Microbiology (IJSEM) (anciennement appelé International Journal for Systematic Bacteriology jusqu'au 31 décembre 1999). Elle est accessible en ligne sur le site de Jean Euzéby sur la nomenclature bactérienne, régulièrement mis à jour.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Rangs taxonomiques et abréviations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme en botanique ou en mycologie :
 le rang de sous-espèce est admis et noté subsp. (subspecies) suivi du nom latin en italiques (ou souligné).
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Mentions sans valeur nomenclaturale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Par contre, la subdivision d'espèces ou de sous-espèces en Biovars (ou biotypes), Sérovars (sérotypes), Lysovars (lysotypes) et en Pathovars (ou pathotypes), généralement écrit avec une majuscule initiale, ne constituent pas des noms scientifiques mais des références pratiques ou des critères pathologiques, géographiques, etc.
 Ainsi, « Pasteurella multocida subsp multocida sérotype D toxinogène » signifiera que la souche identifiée (associée à la rhinite atrophique du porcelet) appartient :
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Conditions de validité des taxons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour que la description princeps soit valide, l'espèce bactérienne doit être :
 isolée et cultivée (sauf quelques exceptions)
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +706,9 @@
           <t>Conditions de publication</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pour être valide et officiel, le nom d'une nouvelle espèce doit être publié dans un journal, sous forme d'un article décrivant l'espèce.
 Pour être légitime, la description doit être complète et respecter les règles établies.
@@ -698,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nomenclature_bact%C3%A9rienne</t>
+          <t>Nomenclature_bactérienne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -717,6 +741,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
